--- a/Excel/Day_4/Logical Functions.xlsx
+++ b/Excel/Day_4/Logical Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS_Professionals\Excel\Day_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC4D340-A58B-43EA-AE60-60D5C652A623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D531A6-4482-47D0-9408-ED622E916FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" tabRatio="862" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AND OR" sheetId="2" r:id="rId1"/>
@@ -560,63 +560,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -644,7 +645,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1530,10 +1530,10 @@
   <sheetData>
     <row r="1" spans="1:28" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1541,25 +1541,25 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
       <c r="Q1" s="15"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
       <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1668,7 +1668,7 @@
         <f t="shared" ref="P6:P9" si="0">M6=100</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="64" t="b">
+      <c r="Q6" s="36" t="b">
         <f t="shared" ref="Q6:Q9" si="1">AND(M6&gt;75,N6&gt;75,O6&gt;75)</f>
         <v>0</v>
       </c>
@@ -1761,7 +1761,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="64" t="b">
+      <c r="Q9" s="36" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1855,17 +1855,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1876,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView showGridLines="0" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1912,23 +1912,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
+      <c r="L1" s="55"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1946,13 +1946,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1981,11 +1981,11 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2013,11 +2013,11 @@
       <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -2041,11 +2041,11 @@
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -2069,11 +2069,11 @@
       <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -2097,11 +2097,11 @@
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -2125,19 +2125,19 @@
       <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -2352,7 +2352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2386,24 +2386,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2412,13 +2412,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2447,11 +2447,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2482,11 +2482,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -2513,11 +2513,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -2544,11 +2544,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -2575,11 +2575,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -2606,19 +2606,19 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -2786,7 +2786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2817,23 +2817,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2842,13 +2842,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2877,11 +2877,11 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2912,11 +2912,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="L6" s="20" t="s">
         <v>18</v>
       </c>
@@ -2943,11 +2943,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
       <c r="L7" s="20" t="s">
         <v>19</v>
       </c>
@@ -2974,11 +2974,11 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="L8" s="20" t="s">
         <v>20</v>
       </c>
@@ -3005,11 +3005,11 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
       <c r="L9" s="20" t="s">
         <v>21</v>
       </c>
@@ -3036,19 +3036,19 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="5"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
       <c r="L11" s="26" t="s">
         <v>41</v>
       </c>

--- a/Excel/Day_4/Logical Functions.xlsx
+++ b/Excel/Day_4/Logical Functions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS_Professionals\Excel\Day_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D531A6-4482-47D0-9408-ED622E916FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A8E502-8D46-49D6-A2B1-BFB2837B942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
   <si>
     <t>Example</t>
   </si>
@@ -188,6 +188,21 @@
   </si>
   <si>
     <t>&lt; 35 in any one subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booleans </t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>Not A</t>
+  </si>
+  <si>
+    <t>Truth Table</t>
   </si>
 </sst>
 </file>
@@ -481,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -560,7 +575,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -645,6 +665,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1503,9 +1528,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="54" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
@@ -1530,10 +1555,10 @@
   <sheetData>
     <row r="1" spans="1:28" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="55"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1541,25 +1566,25 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
+      <c r="K1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
       <c r="Q1" s="15"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
       <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1577,13 +1602,13 @@
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1612,11 +1637,11 @@
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1647,11 +1672,11 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -1668,7 +1693,7 @@
         <f t="shared" ref="P6:P9" si="0">M6=100</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="36" t="b">
+      <c r="Q6" s="24" t="b">
         <f t="shared" ref="Q6:Q9" si="1">AND(M6&gt;75,N6&gt;75,O6&gt;75)</f>
         <v>0</v>
       </c>
@@ -1678,11 +1703,11 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -1709,11 +1734,11 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -1740,11 +1765,11 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -1761,29 +1786,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="36" t="b">
+      <c r="Q9" s="24" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R9" s="35" t="b">
-        <f t="shared" si="2"/>
+        <f>OR(M9&lt;35,N9&lt;35,O9&lt;35)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -1791,67 +1816,163 @@
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C13" s="13"/>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="N15" s="66" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-    </row>
-    <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-    </row>
-    <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-    </row>
-    <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-    </row>
-    <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-    </row>
-    <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="N16" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="N17" s="21">
+        <v>0</v>
+      </c>
+      <c r="O17" s="21">
+        <v>1</v>
+      </c>
+      <c r="P17" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="N18" s="21">
+        <v>1</v>
+      </c>
+      <c r="O18" s="21">
+        <v>0</v>
+      </c>
+      <c r="P18" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="N19" s="21">
+        <v>0</v>
+      </c>
+      <c r="O19" s="21">
+        <v>0</v>
+      </c>
+      <c r="P19" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="N20" s="21">
+        <v>1</v>
+      </c>
+      <c r="O20" s="21">
+        <v>1</v>
+      </c>
+      <c r="P20" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N23" s="21">
+        <v>0</v>
+      </c>
+      <c r="O23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N24" s="21">
+        <v>1</v>
+      </c>
+      <c r="O24" s="21">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1876,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView showGridLines="0" topLeftCell="C2" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1912,23 +2033,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="55"/>
+      <c r="K1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="56"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1946,13 +2067,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1981,11 +2102,11 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2007,17 +2128,17 @@
         <v>A</v>
       </c>
       <c r="Q5" s="22" t="str">
-        <f>IF(N5&gt;=85,"A",IF(N5&lt;60,"C","B"))</f>
+        <f>IF(N5&gt;=85,"A",IF(N5&gt;=60,"B","C"))</f>
         <v>B</v>
       </c>
       <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -2035,17 +2156,17 @@
         <v>B</v>
       </c>
       <c r="Q6" s="22" t="str">
-        <f t="shared" ref="Q6:Q9" si="1">IF(N6&gt;=85,"A",IF(N6&lt;60,"C","B"))</f>
+        <f t="shared" ref="Q6:Q9" si="1">IF(N6&gt;=85,"A",IF(N6&gt;=60,"B","C"))</f>
         <v>C</v>
       </c>
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -2069,11 +2190,11 @@
       <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -2097,11 +2218,11 @@
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -2125,19 +2246,19 @@
       <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -2172,13 +2293,13 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
       <c r="L14" s="29" t="s">
         <v>17</v>
       </c>
@@ -2192,7 +2313,7 @@
         <v>85</v>
       </c>
       <c r="P14" s="29" t="str">
-        <f>IF(AND(O14&gt;75,N14&gt;75,M14&gt;75),"Passed with Distinction","")</f>
+        <f>IF(AND(M14&gt;75,N14&gt;75,O14&gt;75),"Passed with Distinction")</f>
         <v>Passed with Distinction</v>
       </c>
       <c r="Q14" s="29" t="str">
@@ -2202,11 +2323,11 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
       <c r="L15" s="29" t="s">
         <v>18</v>
       </c>
@@ -2219,22 +2340,19 @@
       <c r="O15" s="29">
         <v>43</v>
       </c>
-      <c r="P15" s="29" t="str">
-        <f t="shared" ref="P15:P18" si="2">IF(AND(O15&gt;75,N15&gt;75,M15&gt;75),"Passed with Distinction","")</f>
-        <v/>
-      </c>
+      <c r="P15" s="29"/>
       <c r="Q15" s="29" t="str">
-        <f t="shared" ref="Q15:Q18" si="3">IF(OR(O15&lt;35,N15&lt;35,M15&lt;35),"Failed","Promoted to next class")</f>
+        <f t="shared" ref="Q15:Q18" si="2">IF(OR(O15&lt;35,N15&lt;35,M15&lt;35),"Failed","Promoted to next class")</f>
         <v>Promoted to next class</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
       <c r="L16" s="29" t="s">
         <v>19</v>
       </c>
@@ -2248,20 +2366,20 @@
         <v>79</v>
       </c>
       <c r="P16" s="29" t="str">
+        <f t="shared" ref="P16:P17" si="3">IF(AND(M16&gt;75,N16&gt;75,O16&gt;75),"Passed with Distinction")</f>
+        <v>Passed with Distinction</v>
+      </c>
+      <c r="Q16" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>Passed with Distinction</v>
-      </c>
-      <c r="Q16" s="29" t="str">
-        <f t="shared" si="3"/>
         <v>Promoted to next class</v>
       </c>
     </row>
     <row r="17" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
       <c r="L17" s="29" t="s">
         <v>20</v>
       </c>
@@ -2275,20 +2393,20 @@
         <v>82</v>
       </c>
       <c r="P17" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed with Distinction</v>
+      </c>
+      <c r="Q17" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>Passed with Distinction</v>
-      </c>
-      <c r="Q17" s="29" t="str">
-        <f t="shared" si="3"/>
         <v>Promoted to next class</v>
       </c>
     </row>
     <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
       <c r="L18" s="29" t="s">
         <v>21</v>
       </c>
@@ -2301,35 +2419,32 @@
       <c r="O18" s="29">
         <v>30</v>
       </c>
-      <c r="P18" s="29" t="str">
+      <c r="P18" s="29"/>
+      <c r="Q18" s="37" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q18" s="29" t="str">
-        <f t="shared" si="3"/>
         <v>Failed</v>
       </c>
     </row>
     <row r="19" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
     </row>
     <row r="20" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2352,7 +2467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2386,24 +2503,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
+      <c r="K1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2412,13 +2529,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2447,11 +2564,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2482,11 +2599,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -2513,11 +2630,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -2544,11 +2661,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -2575,11 +2692,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -2606,19 +2723,19 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -2632,13 +2749,13 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
       <c r="L14" s="28" t="s">
         <v>29</v>
       </c>
@@ -2654,16 +2771,16 @@
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
       <c r="L15" s="22" t="s">
         <v>30</v>
       </c>
       <c r="M15" s="24">
-        <f>COUNTIF(P$5:P$9,$L15)</f>
+        <f>COUNTIF($P$5:$P$9,L15)</f>
         <v>3</v>
       </c>
       <c r="N15" s="24">
@@ -2677,80 +2794,80 @@
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
       <c r="L16" s="22" t="s">
         <v>31</v>
       </c>
       <c r="M16" s="24">
-        <f t="shared" ref="M16:M17" si="4">COUNTIF($P$5:$P$9,L16)</f>
+        <f>COUNTIF($P$5:$P$9,L16)</f>
         <v>2</v>
       </c>
       <c r="N16" s="24">
-        <f t="shared" ref="N16:N17" si="5">COUNTIF(Q$5:Q$9,$L16)</f>
+        <f t="shared" ref="N16:N17" si="4">COUNTIF(Q$5:Q$9,$L16)</f>
         <v>3</v>
       </c>
       <c r="O16" s="24">
-        <f t="shared" ref="O16:O17" si="6">COUNTIF(R$5:R$9,$L16)</f>
+        <f t="shared" ref="O16:O17" si="5">COUNTIF(R$5:R$9,$L16)</f>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
       <c r="L17" s="22" t="s">
         <v>32</v>
       </c>
       <c r="M17" s="24">
+        <f>COUNTIF($P$5:$P$9,L17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="24">
+        <v>1</v>
+      </c>
+      <c r="O17" s="24">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="24">
-        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
       <c r="L19" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
       <c r="L20" s="30"/>
     </row>
     <row r="21" spans="3:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
       <c r="L21" s="31" t="s">
         <v>39</v>
       </c>
@@ -2786,7 +2903,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2817,23 +2936,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="K1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2842,13 +2961,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2877,11 +2996,11 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2912,11 +3031,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
       <c r="L6" s="20" t="s">
         <v>18</v>
       </c>
@@ -2943,11 +3062,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
       <c r="L7" s="20" t="s">
         <v>19</v>
       </c>
@@ -2974,11 +3093,11 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
       <c r="L8" s="20" t="s">
         <v>20</v>
       </c>
@@ -3005,12 +3124,12 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="L9" s="20" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="L9" s="68" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="20">
@@ -3030,25 +3149,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R9" s="20" t="b">
+      <c r="R9" s="68" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="5"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
       <c r="L11" s="26" t="s">
         <v>41</v>
       </c>
@@ -3075,22 +3194,22 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
       <c r="L14" s="21" t="b">
         <v>0</v>
       </c>
       <c r="M14" s="21">
-        <f>SUMIF($R$5:R$9,$L$14,M5:M9)</f>
+        <f>SUMIF($R$5:$R$9,$L$14,$M$5:$M$9)</f>
         <v>349</v>
       </c>
       <c r="N14" s="21">
-        <f ca="1">SUMIF($R$5:S$9,$L$14,N5:N9)</f>
+        <f>SUMIF($R$5:$R$9,$L$14,$N$5:$N$9)</f>
         <v>315</v>
       </c>
       <c r="O14" s="21">
@@ -3100,54 +3219,54 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="9">
